--- a/cpsy200prototype/Services/data-samples.xlsx
+++ b/cpsy200prototype/Services/data-samples.xlsx
@@ -3,59 +3,114 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mryla\Documents\FBE\cpsy200prototype\cpsy200prototype\Services\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834EC89E-31EC-4CD3-AB77-59CEC1977EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2040" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="2040" windowWidth="21600" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>rrrrrrre</t>
-  </si>
-  <si>
-    <t>eeeeeeeer</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>ererer@gmail.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>Stevesteve@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrrrrrre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eeeeeeeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ererer@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0987654321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevesteve@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4039013212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nile.grill@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shovel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dig dirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protects your head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dig Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protects Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,11 +149,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -392,7 +447,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr/>
+      <a:bodyPr rtlCol="0"/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -420,11 +475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,45 +487,117 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="0">
         <v>5</v>
       </c>
     </row>

--- a/cpsy200prototype/Services/data-samples.xlsx
+++ b/cpsy200prototype/Services/data-samples.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2040" windowWidth="21600" windowHeight="11235"/>
+    <workbookView xWindow="645" yWindow="2040" windowWidth="21600" windowHeight="11235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
+    <sheet name="Rentals" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipment" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t xml:space="preserve">1234</t>
   </si>
@@ -64,19 +66,73 @@
     <t xml:space="preserve">Banned</t>
   </si>
   <si>
+    <t xml:space="preserve">Rental ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rental Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Rental Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shovel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIckaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minning</t>
+  </si>
+  <si>
     <t xml:space="preserve">54321</t>
   </si>
   <si>
-    <t xml:space="preserve">Shovel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dig dirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32132</t>
+    <t xml:space="preserve">Bow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90532</t>
   </si>
   <si>
     <t xml:space="preserve">Helmet</t>
@@ -85,25 +141,16 @@
     <t xml:space="preserve">Safety</t>
   </si>
   <si>
-    <t xml:space="preserve">Protects your head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pickaxe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dig Stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15243</t>
-  </si>
-  <si>
     <t xml:space="preserve">Protects Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENT-20250415171342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16</t>
   </si>
 </sst>
 </file>
@@ -476,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A2:M8"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +537,7 @@
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
@@ -510,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -530,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -550,54 +597,231 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="H6" s="0" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A14:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L14" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="0">
+        <v>5</v>
+      </c>
+      <c r="L15" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="0">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="0">
+      <c r="L16" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="H8" s="0" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A6:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="0">
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="0">
         <v>5</v>
       </c>
     </row>

--- a/cpsy200prototype/Services/data-samples.xlsx
+++ b/cpsy200prototype/Services/data-samples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2040" windowWidth="21600" windowHeight="11235" activeTab="2"/>
+    <workbookView xWindow="645" yWindow="2040" windowWidth="21600" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -16,141 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Rental ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rental Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Rental Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost</t>
+  </si>
   <si>
     <t xml:space="preserve">1234</t>
   </si>
   <si>
-    <t xml:space="preserve">rrrrrrre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eeeeeeeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ererer@gmail.com</t>
+    <t xml:space="preserve">McCluskey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rylan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4039015010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rylan.mccluskey@edu.sait.ca</t>
   </si>
   <si>
     <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0987654321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevesteve@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4039013212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nile.grill@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rental ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rental Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily Rental Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shovel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIckaxe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protects Head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENT-20250415171342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-16</t>
   </si>
 </sst>
 </file>
@@ -523,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,64 +456,24 @@
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -604,9 +483,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A14:M16"/>
+  <dimension ref="A14:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,116 +506,40 @@
   <sheetData>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="0">
-        <v>5</v>
-      </c>
-      <c r="L15" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="0">
-        <v>12</v>
-      </c>
-      <c r="L16" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -744,9 +549,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A6:F9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -756,76 +563,7 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="0">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cpsy200prototype/Services/data-samples.xlsx
+++ b/cpsy200prototype/Services/data-samples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t xml:space="preserve">Rental ID</t>
   </si>
@@ -70,6 +70,72 @@
   </si>
   <si>
     <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shovel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacIntyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4035852818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayson.macintyre@edu.sait.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENT-20250416110154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENT-20250416110700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17</t>
   </si>
 </sst>
 </file>
@@ -442,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -476,6 +542,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -483,7 +569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A14:M14"/>
+  <dimension ref="A14:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:L16"/>
@@ -542,6 +628,158 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="0">
+        <v>12</v>
+      </c>
+      <c r="L15" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="0">
+        <v>12</v>
+      </c>
+      <c r="L16" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="0">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="0">
+        <v>12</v>
+      </c>
+      <c r="L18" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,7 +787,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+  <dimension ref="A6:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -563,7 +801,59 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>